--- a/result tables.xlsx
+++ b/result tables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t xml:space="preserve">Frequency Calculation Results</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">shell</t>
   </si>
   <si>
+    <t xml:space="preserve">Solid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mode</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Buckling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abaqus</t>
   </si>
   <si>
     <t xml:space="preserve">Not available</t>
@@ -159,7 +165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,6 +179,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,10 +207,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -230,28 +240,34 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,22 +275,33 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>86</v>
+        <f aca="false">SQRT(I4)/2/PI()</f>
+        <v>34.3088742305086</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>77.3</v>
+        <f aca="false">SQRT(J4)/2/PI()</f>
+        <v>30.8571843057475</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>30.85</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>31.47</v>
+        <v>30.04</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>30.12</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>30.54</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>46470</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>37590</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,16 +309,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>112</v>
+        <f aca="false">SQRT(I5)/2/PI()</f>
+        <v>45.0860981548016</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>112</v>
+        <f aca="false">SQRT(J5)/2/PI()</f>
+        <v>44.9256939640933</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>44.93</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>62.18</v>
+        <v>43.7</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>45.54</v>
@@ -299,22 +328,33 @@
       <c r="G5" s="3" t="n">
         <v>43.91</v>
       </c>
+      <c r="H5" s="1" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>80250</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>79680</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>112</v>
+        <f aca="false">SQRT(I6)/2/PI()</f>
+        <v>45.1562711126821</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>112</v>
+        <f aca="false">SQRT(J6)/2/PI()</f>
+        <v>45.0214424331892</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>45.02</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>95.19</v>
+        <v>43.7</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>45.98</v>
@@ -322,13 +362,22 @@
       <c r="G6" s="3" t="n">
         <v>43.74</v>
       </c>
+      <c r="H6" s="1" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>80500</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>80020</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -342,22 +391,22 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,10 +431,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
@@ -399,50 +448,50 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>-12010000</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>-11990000</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>-10000000</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>-10000000</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>-10830000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>2</v>
@@ -453,25 +502,31 @@
       <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,22 +534,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>17.329</v>
+        <v>14.15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>180.6</v>
+        <v>14.2</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>23.86</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>14.46</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>14.223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,11 +560,11 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>17.381</v>
+        <v>14.28</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="n">
-        <v>290</v>
+        <v>14.5</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>24.98</v>
@@ -514,23 +572,29 @@
       <c r="G19" s="3" t="n">
         <v>14.5</v>
       </c>
+      <c r="H19" s="1" t="n">
+        <v>14.33</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>17.468</v>
+        <v>14.38</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="n">
-        <v>298</v>
+        <v>15.4</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>26.12</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>14.65</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>14.36</v>
       </c>
     </row>
   </sheetData>
